--- a/Book1 (4).xlsx
+++ b/Book1 (4).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ha Tran\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="10550"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7090"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Daniel</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>Hello</t>
+  </si>
+  <si>
+    <t>Test</t>
   </si>
 </sst>
 </file>
@@ -393,7 +396,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -420,6 +423,9 @@
       <c r="A5" t="s">
         <v>3</v>
       </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Book1 (4).xlsx
+++ b/Book1 (4).xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Daniel</t>
   </si>
@@ -393,7 +393,7 @@
   <dimension ref="A2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -410,6 +410,9 @@
       <c r="A3" t="s">
         <v>1</v>
       </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
